--- a/tabular/genus/ichthama-refseqs-side-data.xlsx
+++ b/tabular/genus/ichthama-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8F3D7F-E6D8-1D4F-BB67-25A5E7C7CDB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DB2EEB-AFFF-0A4D-99B1-9E49DBBE5F1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="6200" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
+    <workbookView xWindow="22620" yWindow="1960" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>accession-ID</t>
   </si>
@@ -86,34 +86,22 @@
     <t>Hamaparvovirinae</t>
   </si>
   <si>
-    <t>Chaphamaparvovirus</t>
-  </si>
-  <si>
-    <t>MG846443</t>
-  </si>
-  <si>
-    <t>Chicken-chapparvovirus-2</t>
-  </si>
-  <si>
-    <t>Gallus gallus</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>CChPV</t>
-  </si>
-  <si>
-    <t>MH670587</t>
-  </si>
-  <si>
-    <t>MkPV</t>
-  </si>
-  <si>
-    <t>Mouse kidney parvoviruses</t>
-  </si>
-  <si>
-    <t>Mus musculus</t>
+    <t>MN162688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IcthPV </t>
+  </si>
+  <si>
+    <t>Ichthyic parvovirus isolate HMU-HKU</t>
+  </si>
+  <si>
+    <t>Icthamaparvovirus</t>
+  </si>
+  <si>
+    <t>Tilapia</t>
   </si>
 </sst>
 </file>
@@ -519,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5CE6FC-94FB-E64A-8308-5869E9818659}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,19 +578,19 @@
         <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
@@ -626,51 +614,6 @@
         <v>13</v>
       </c>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tabular/genus/ichthama-refseqs-side-data.xlsx
+++ b/tabular/genus/ichthama-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DB2EEB-AFFF-0A4D-99B1-9E49DBBE5F1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2F908A-91B7-8849-9134-E87127AAB70A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22620" yWindow="1960" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
@@ -98,10 +98,10 @@
     <t>Ichthyic parvovirus isolate HMU-HKU</t>
   </si>
   <si>
-    <t>Icthamaparvovirus</t>
-  </si>
-  <si>
     <t>Tilapia</t>
+  </si>
+  <si>
+    <t>Ichthamaparvovirus</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>19</v>
@@ -590,7 +590,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>

--- a/tabular/genus/ichthama-refseqs-side-data.xlsx
+++ b/tabular/genus/ichthama-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2F908A-91B7-8849-9134-E87127AAB70A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FAC1A1-0092-434A-95F1-5CA7EBD64C5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22620" yWindow="1960" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5CE6FC-94FB-E64A-8308-5869E9818659}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/genus/ichthama-refseqs-side-data.xlsx
+++ b/tabular/genus/ichthama-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FAC1A1-0092-434A-95F1-5CA7EBD64C5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5226910-DAD9-954C-A946-CDFCA61E0EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22620" yWindow="1960" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
-    <t>accession-ID</t>
-  </si>
-  <si>
     <t>virus_name</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Ichthamaparvovirus</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,93 +525,93 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O2" s="6"/>
     </row>

--- a/tabular/genus/ichthama-refseqs-side-data.xlsx
+++ b/tabular/genus/ichthama-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5226910-DAD9-954C-A946-CDFCA61E0EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACBC57F-6983-7947-AABE-042A053A523C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22620" yWindow="1960" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>virus_name</t>
   </si>
@@ -71,34 +71,10 @@
     <t>lab_construct</t>
   </si>
   <si>
-    <t>NK</t>
-  </si>
-  <si>
     <t>accession-other</t>
   </si>
   <si>
     <t>virus_subfamily</t>
-  </si>
-  <si>
-    <t>Hamaparvovirinae</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MN162688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IcthPV </t>
-  </si>
-  <si>
-    <t>Ichthyic parvovirus isolate HMU-HKU</t>
-  </si>
-  <si>
-    <t>Tilapia</t>
-  </si>
-  <si>
-    <t>Ichthamaparvovirus</t>
   </si>
   <si>
     <t>sequenceID</t>
@@ -108,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,16 +106,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,24 +117,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF660066"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,16 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5CE6FC-94FB-E64A-8308-5869E9818659}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,10 +471,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -567,53 +513,8 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
